--- a/docs/ExampleMap_TA.xlsx
+++ b/docs/ExampleMap_TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB94CB-B431-408D-AE6E-FC3EBAE4A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13E3A2-041F-4AB6-8180-7FA0602EE605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>This is a rule</t>
   </si>
@@ -491,6 +491,12 @@
 - különböző jelszavak megadása
 =&gt;  Inaktív "Következő" gomb és megjelenik a "A megadott jelszavak nem egyeznek!" hibaüzenet </t>
     </r>
+  </si>
+  <si>
+    <t>tesrtsedfs</t>
+  </si>
+  <si>
+    <t>dfsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -748,7 +754,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -781,35 +787,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1132,7 +1120,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1159,12 +1147,16 @@
       <c r="A1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19"/>
+      <c r="A2" s="1"/>
       <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="L2" s="1"/>
@@ -1180,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3"/>
@@ -1188,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="4"/>
@@ -1197,19 +1189,19 @@
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="1"/>
@@ -1218,7 +1210,7 @@
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
@@ -1227,35 +1219,34 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="15"/>
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1361,10 +1352,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1470,10 +1461,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1579,10 +1570,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1688,10 +1679,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1797,10 +1788,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1906,10 +1897,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/docs/ExampleMap_TA.xlsx
+++ b/docs/ExampleMap_TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13E3A2-041F-4AB6-8180-7FA0602EE605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37DAD2C-A5E1-41E6-B5D4-5F1CE54FB1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>This is a rule</t>
   </si>
@@ -491,12 +491,6 @@
 - különböző jelszavak megadása
 =&gt;  Inaktív "Következő" gomb és megjelenik a "A megadott jelszavak nem egyeznek!" hibaüzenet </t>
     </r>
-  </si>
-  <si>
-    <t>tesrtsedfs</t>
-  </si>
-  <si>
-    <t>dfsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1114,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1151,12 +1145,8 @@
       <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="L2" s="1"/>

--- a/docs/ExampleMap_TA.xlsx
+++ b/docs/ExampleMap_TA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37DAD2C-A5E1-41E6-B5D4-5F1CE54FB1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB654BAB-080F-4E04-A542-1CB8C066330F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regisztracio" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>This is a rule</t>
   </si>
@@ -491,6 +491,9 @@
 - különböző jelszavak megadása
 =&gt;  Inaktív "Következő" gomb és megjelenik a "A megadott jelszavak nem egyeznek!" hibaüzenet </t>
     </r>
+  </si>
+  <si>
+    <t>Bejelentkezes</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBE0450-19F7-4FBD-B41F-F6A4254C5495}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1255,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4351E-459D-4623-B01D-053C343F0B92}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1283,11 +1286,9 @@
       <c r="A1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2"/>
       <c r="C2" s="10" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1298,11 +1299,9 @@
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="3"/>
-      <c r="C4"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
@@ -1313,11 +1312,9 @@
       <c r="L4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6"/>
       <c r="C6"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
@@ -1326,7 +1323,7 @@
       <c r="L6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
@@ -1337,9 +1334,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>

--- a/docs/ExampleMap_TA.xlsx
+++ b/docs/ExampleMap_TA.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB654BAB-080F-4E04-A542-1CB8C066330F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8823B1-EE0C-4448-AC72-FB3FEA1CD073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regisztracio" sheetId="6" r:id="rId1"/>
     <sheet name="Bejelentkezes" sheetId="5" r:id="rId2"/>
     <sheet name="Nyelv megvaltoztatasa" sheetId="7" r:id="rId3"/>
     <sheet name="Termek kereses" sheetId="9" r:id="rId4"/>
-    <sheet name="Kosarba pakolas" sheetId="10" r:id="rId5"/>
-    <sheet name="Termekek filterezese" sheetId="11" r:id="rId6"/>
-    <sheet name="Kedvencezes" sheetId="13" r:id="rId7"/>
+    <sheet name="Kosar használata" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,114 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
-  <si>
-    <t>This is a rule</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="20"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This is an example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Context
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="20"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-=&gt; Outcome</t>
-    </r>
-  </si>
-  <si>
-    <t>This is a question</t>
-  </si>
-  <si>
-    <t>This is my user story or topic</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This is another example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Context
-- Other context
-- And another
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-=&gt; Outcome</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Felhasználói fiók regisztrálás</t>
   </si>
@@ -494,13 +385,445 @@
   </si>
   <si>
     <t>Bejelentkezes</t>
+  </si>
+  <si>
+    <t>Helyes jelszót kell megadni</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email cím "@" jel nélkül</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- bejelentkezés felület
+- helytelen email cím megadása "@" jel nélkül
+=&gt; Megjelenik a "Érvénytelen e-mail cím
+Az e-mail címnek tartalmaznia kell a @ jelet!." hibaüzenet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Helyes jelszó megadása</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- bejelentkezés felület
+- helyes email cím és jelszó megadása
+- "Bejelentkezés" gomb
+=&gt; Sikeres bejelentkezés</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email cím "@" jellel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- bejelentkezés felület
+- helyes email cím megadása "@" jellel
+- "Bejelentkezés" gomb
+=&gt; Sikeres bejelentkezés</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Helytelen jelszó megadása</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- bejelentkezés felület
+- helyes email cím és helytelen jelszó megadása
+- "Bejelentkezés" gomb
+=&gt; Hibaüzenet: "Sajnos nem sikerült azonosítani a megadott adatokat. Kérjük, ellenőrizd és próbálkozz újra! Ne feledd a kis- és nagy betűk használatát!"</t>
+    </r>
+  </si>
+  <si>
+    <t>Nyelv megváltozatása</t>
+  </si>
+  <si>
+    <t>Nyelvválasztó gomb működése</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Magyar nyelv -&gt; Angol nyelv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Nyelvválasztó gomb "Magyar" megnyomása
+=&gt; Az oldal nyelve angolra változik, megjelenik az "English" felirat a gombon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Angol nyelv -&gt; Magyar nyelv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Nyelvválasztó gomb "English" megnyomása
+=&gt; Az oldal nyelve magyarra változik, megjelenik a "Magyar" felirat a gombon</t>
+    </r>
+  </si>
+  <si>
+    <t>Termék keresése</t>
+  </si>
+  <si>
+    <t>Keresőmező működése</t>
+  </si>
+  <si>
+    <t>Találatok megjelenítése</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keresés pozitív találattal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Keresőmezőben létező termék megkeresése
+=&gt; A találatok megjelennek </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keresés negatív találattal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Keresőmezőben nem létező termék megkeresése
+=&gt; Nincs találat illetve megjelenik a "Sajnos nem található olyan termék, amely a “xxx” keresési feltételnek megfelelne." üzenet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Találatok leellenőrzése</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Keresőmezőben létező termék megkeresése
+- találatok nevének összehasonlítása a keresett kifejezéssel
+=&gt; Minden találat tartalmazza a keresett szót</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Találatok számának kijelzése</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Keresőmezőben létező termék megkeresése
+=&gt; A találatok megjelennek illetve a "Megjelenítve xx termék xxx termékből" felirat látszódik</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clubcard filter használata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Keresőmezőben létező termék megkeresése
+- "Clubcard árak" filter bekapcsolása
+=&gt; Csak azok a találatok jelennek meg, amig rendelkeznek "Clubcard ár" megjelöléssel</t>
+    </r>
+  </si>
+  <si>
+    <t>Csak Clubcard ajánlatok megjelenítése</t>
+  </si>
+  <si>
+    <t>Termékek kosárba helyezése</t>
+  </si>
+  <si>
+    <t>Kosár használata</t>
+  </si>
+  <si>
+    <t>Termék kosárból eltávolítása</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mennyiség alapján kosárba helyezés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Mennyiség alapján megadott mennyiség kiválasztása a termék adatlapján
+- "Hozzáad" gomb
+=&gt; A kiválasztott mennyiségű termék megjelenik a kosárban</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Súly alapján kosárba helyezés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Súly alapján megadott súly kiválasztása a termék adatlapján
+- "Hozzáad" gomb
+=&gt; A kiválasztott súlyú termék megjelenik a kosárban</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Törlés mennyiség csökkentése gombbal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Kosárban mennyiség csökkentése amíg csak lehetséges
+=&gt; A termék eltűnik a kosárból</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Törlés a törlés gomb használatával</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Adott termék melletti "X" gomb használata
+=&gt; A termék eltűnik a kosárból</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,13 +846,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -538,63 +854,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="20"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="20"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -647,7 +908,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,11 +918,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -744,65 +1000,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Jegyzet" xfId="4" builtinId="10"/>
+  <cellStyles count="4">
+    <cellStyle name="Jegyzet" xfId="3" builtinId="10"/>
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Rossz" xfId="2" builtinId="27"/>
-    <cellStyle name="Számítás" xfId="3" builtinId="22"/>
+    <cellStyle name="Számítás" xfId="2" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1116,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBE0450-19F7-4FBD-B41F-F6A4254C5495}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1141,12 +1386,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1157,24 +1402,24 @@
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="9" t="s">
-        <v>7</v>
+      <c r="G4" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
+      <c r="I4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="4"/>
       <c r="L4" s="4"/>
@@ -1182,20 +1427,20 @@
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>21</v>
+      <c r="I6" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="1"/>
       <c r="L6" s="1"/>
@@ -1212,34 +1457,34 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="12"/>
+      <c r="E10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1258,8 +1503,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4351E-459D-4623-B01D-053C343F0B92}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="55.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="48" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3" style="2" customWidth="1"/>
+    <col min="11" max="11" width="47.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3" style="2" customWidth="1"/>
+    <col min="13" max="13" width="47.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3" style="2" customWidth="1"/>
+    <col min="15" max="19" width="53.5703125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2"/>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="193.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51337985-87CE-4586-881B-F35D1DF9DC46}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1283,12 +1642,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2"/>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
+      <c r="A2" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1299,9 +1657,11 @@
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="9"/>
+      <c r="C4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
@@ -1312,9 +1672,11 @@
       <c r="L4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6"/>
+    <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="C6"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
@@ -1323,7 +1685,7 @@
       <c r="L6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
@@ -1334,13 +1696,15 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8"/>
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
+      <c r="A9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1355,12 +1719,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51337985-87CE-4586-881B-F35D1DF9DC46}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB998E12-5EFB-4C51-8DEC-98F65EABD12F}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1384,14 +1748,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
+      <c r="A2" s="1"/>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1402,13 +1764,17 @@
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
+      <c r="A4" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4"/>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
@@ -1419,11 +1785,15 @@
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1441,15 +1811,18 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
+      <c r="A9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1464,12 +1837,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB998E12-5EFB-4C51-8DEC-98F65EABD12F}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD7B12E-A4F9-43B4-897A-FA0485D50EFD}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1493,14 +1866,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
+      <c r="A2" s="1"/>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -1511,11 +1882,13 @@
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
+      <c r="A4" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4"/>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
@@ -1528,10 +1901,12 @@
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6"/>
+      <c r="A6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
@@ -1550,342 +1925,18 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
+      <c r="A8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
+      <c r="A9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD7B12E-A4F9-43B4-897A-FA0485D50EFD}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="47.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3" style="2" customWidth="1"/>
-    <col min="11" max="11" width="47.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3" style="2" customWidth="1"/>
-    <col min="13" max="13" width="47.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3" style="2" customWidth="1"/>
-    <col min="15" max="19" width="53.5703125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1362CD08-D2C3-4512-B1E4-AB1EC0B57946}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="47.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3" style="2" customWidth="1"/>
-    <col min="11" max="11" width="47.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3" style="2" customWidth="1"/>
-    <col min="13" max="13" width="47.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3" style="2" customWidth="1"/>
-    <col min="15" max="19" width="53.5703125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A535F03F-336C-4E9C-BB8B-E48FB1C8D48A}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="47.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3" style="2" customWidth="1"/>
-    <col min="11" max="11" width="47.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3" style="2" customWidth="1"/>
-    <col min="13" max="13" width="47.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3" style="2" customWidth="1"/>
-    <col min="15" max="19" width="53.5703125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.4"/>
